--- a/FruitsPrice.xlsx
+++ b/FruitsPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA637B11-0D31-4B0E-AC34-7F638186B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7E9D1-F4E1-4520-8CFD-72D13A08C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
